--- a/analyst/Franzi/rmonize/data_dictionary/DD_EPICP_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_dictionary/DD_EPICP_FRANZI.xlsx
@@ -1,22 +1,651 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_dictionary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D8381B53-48B1-4985-A7B6-AE3B4B802171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="206">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>valueType</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>POTATOES_TUB_01</t>
+  </si>
+  <si>
+    <t>Intake of starchy roots or tubers [g/d]</t>
+  </si>
+  <si>
+    <t>POTATOES_0101</t>
+  </si>
+  <si>
+    <t>Potato intake [g/d]</t>
+  </si>
+  <si>
+    <t>VEGETABLES_02</t>
+  </si>
+  <si>
+    <t>Vegetable intake [g/d]</t>
+  </si>
+  <si>
+    <t>LEAFYVEG_0201</t>
+  </si>
+  <si>
+    <t>Leafy vegetable intake [g/d]</t>
+  </si>
+  <si>
+    <t>FRUITINGVEG_0202</t>
+  </si>
+  <si>
+    <t>Fruiting vegetable intake [g/d]</t>
+  </si>
+  <si>
+    <t>ROOTVEG_0203</t>
+  </si>
+  <si>
+    <t>Root and tuber vegetable intake [g/d]</t>
+  </si>
+  <si>
+    <t>CABBAGE_0204</t>
+  </si>
+  <si>
+    <t>Head cabbages and similar intake [g/d]</t>
+  </si>
+  <si>
+    <t>MUSHROOMS_0205</t>
+  </si>
+  <si>
+    <t>Mushroom intake [g/d]</t>
+  </si>
+  <si>
+    <t>GRAINPODVEG_0206</t>
+  </si>
+  <si>
+    <t>Intake of legumes with pod [g/d]</t>
+  </si>
+  <si>
+    <t>ONION_GARLIC_0207</t>
+  </si>
+  <si>
+    <t>Bulb vegetables (onions, garlic) intake [g/d]</t>
+  </si>
+  <si>
+    <t>STALKVEG_0208</t>
+  </si>
+  <si>
+    <t>Intake of stems/stalks eaten as vegetables [g/d]</t>
+  </si>
+  <si>
+    <t>MIXEDVEG_0209</t>
+  </si>
+  <si>
+    <t>Intake of mixed vegetable salad or mixed green salad [g/d]</t>
+  </si>
+  <si>
+    <t>LEGUMES_TOT_03</t>
+  </si>
+  <si>
+    <t>Total legumes intake [g/d]</t>
+  </si>
+  <si>
+    <t>LEGUMES_0301</t>
+  </si>
+  <si>
+    <t>Intake fresh seeds (without pod) from legumes (beans, peas etc.) [g/d]</t>
+  </si>
+  <si>
+    <t>FRUITS_TOT_04</t>
+  </si>
+  <si>
+    <t>Total fruit intake [g/d]</t>
+  </si>
+  <si>
+    <t>FRUITS_0401</t>
+  </si>
+  <si>
+    <t>Intake of fresh fruits [g/d]</t>
+  </si>
+  <si>
+    <t>NUTS_SEEDS_0402</t>
+  </si>
+  <si>
+    <t>Intake of tree nuts and seeds [g/d]</t>
+  </si>
+  <si>
+    <t>MIXEDFRUITS_0403</t>
+  </si>
+  <si>
+    <t>Intake of candied fruit/mixed fruit, canned, jarred mixed fruit and miscellaneous fruits [g/d]</t>
+  </si>
+  <si>
+    <t>DAIRY_05</t>
+  </si>
+  <si>
+    <t>Intake of milk and dairy products and milk and milk products (dairy) [g/d]</t>
+  </si>
+  <si>
+    <t>MILK_0501</t>
+  </si>
+  <si>
+    <t>Intake of (whole) cow and cattle milk [g/d]</t>
+  </si>
+  <si>
+    <t>MILKBEV_0502</t>
+  </si>
+  <si>
+    <t>Intake of buttermilk, traditional buttermilk, flavoured milk, flavoured whey and milk-based drinks (as part-nature) [g/d]</t>
+  </si>
+  <si>
+    <t>YOGURT_0503</t>
+  </si>
+  <si>
+    <t>Intake of fermented milk products [g/d]</t>
+  </si>
+  <si>
+    <t>CURD_0504</t>
+  </si>
+  <si>
+    <t>Intake of cheese curd, quark and cottage [g/d]</t>
+  </si>
+  <si>
+    <t>CHEESE_0505</t>
+  </si>
+  <si>
+    <t>Intake of cheese [g/d]</t>
+  </si>
+  <si>
+    <t>DAIRYDESSERT_0506</t>
+  </si>
+  <si>
+    <t>Intake of dairy dessert and similar starchy pudding [g/d]</t>
+  </si>
+  <si>
+    <t>CREAM_PROD_0507</t>
+  </si>
+  <si>
+    <t>Intake of cream and cream products [g/d]</t>
+  </si>
+  <si>
+    <t>DAIRYCREAM_050701</t>
+  </si>
+  <si>
+    <t>Cream intake (as part-nature) [g/d]</t>
+  </si>
+  <si>
+    <t>MILK_FOR_COFFEE_0508</t>
+  </si>
+  <si>
+    <t>Intake of condensed milk (sometimes with added sugars) and milk and dairy powders and concentrates [g/d]</t>
+  </si>
+  <si>
+    <t>CEREAL_PROD_06</t>
+  </si>
+  <si>
+    <t>Intake of cereals and cereal primary derivatives, cereal grains (and cereal-like grains) [g/d]</t>
+  </si>
+  <si>
+    <t>FLOUR_FLAKES_0601</t>
+  </si>
+  <si>
+    <t>Intake of flours and other milled products and starches [g/d]</t>
+  </si>
+  <si>
+    <t>PASTA_RICE_0602</t>
+  </si>
+  <si>
+    <t>Intake of pastas and rice [g/d]</t>
+  </si>
+  <si>
+    <t>BREAD_PROD_0603</t>
+  </si>
+  <si>
+    <t>Intake of bread and bread products [g/d]</t>
+  </si>
+  <si>
+    <t>BREAD_060301</t>
+  </si>
+  <si>
+    <t>Intake of bread [g/d]</t>
+  </si>
+  <si>
+    <t>CRISPBREAD_060302</t>
+  </si>
+  <si>
+    <t>Intake of crisp bread and rusk [g/d]</t>
+  </si>
+  <si>
+    <t>BREAKF_CEREALS_0604</t>
+  </si>
+  <si>
+    <t>Intake of breakfast cereals [g/d]</t>
+  </si>
+  <si>
+    <t>SALT_BISCUIT_0605</t>
+  </si>
+  <si>
+    <t>Intake of crackers and breadsticks [g/d]</t>
+  </si>
+  <si>
+    <t>DOUGH_PASTRY_0606</t>
+  </si>
+  <si>
+    <t>Intake of fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>MEAT_PROD_07</t>
+  </si>
+  <si>
+    <t>Intake of meat and meat products [g/d]</t>
+  </si>
+  <si>
+    <t>RED_MEAT_0701</t>
+  </si>
+  <si>
+    <t>Intake of red meat (mammals meat) [g/d]</t>
+  </si>
+  <si>
+    <t>BEEF_070101</t>
+  </si>
+  <si>
+    <t>Intake of cow, ox or bull fresh meat [g/d]</t>
+  </si>
+  <si>
+    <t>VEAL_070102</t>
+  </si>
+  <si>
+    <t>Intake of calf fresh meat [g/d]</t>
+  </si>
+  <si>
+    <t>PORK_070103</t>
+  </si>
+  <si>
+    <t>Intake of pig fresh meat [g/d]</t>
+  </si>
+  <si>
+    <t>MUTTON_LAMB_070104</t>
+  </si>
+  <si>
+    <t>Intake of lamb and sheep meat [g/d]</t>
+  </si>
+  <si>
+    <t>POULTRY_0702</t>
+  </si>
+  <si>
+    <t>Intake of poultry meat [g/d]</t>
+  </si>
+  <si>
+    <t>OTHERPOULTRY_070200</t>
+  </si>
+  <si>
+    <t>Intake of other poultry meat [g/d]</t>
+  </si>
+  <si>
+    <t>CHICKEN_070201</t>
+  </si>
+  <si>
+    <t>Intake of chicken meat [g/d]</t>
+  </si>
+  <si>
+    <t>RABBIT_070205</t>
+  </si>
+  <si>
+    <t>Intake of rabbit meat [g/d]</t>
+  </si>
+  <si>
+    <t>PROCMEAT_0704</t>
+  </si>
+  <si>
+    <t>Intake of processed or preserved meat [g/d]</t>
+  </si>
+  <si>
+    <t>OFFALS_0705</t>
+  </si>
+  <si>
+    <t>Intake of animal offal and other slaughtering [g/d]</t>
+  </si>
+  <si>
+    <t>FISH_SHELLFISH_08</t>
+  </si>
+  <si>
+    <t>Intake of fish and seafood and products thereof [g/d]</t>
+  </si>
+  <si>
+    <t>FISH_0801</t>
+  </si>
+  <si>
+    <t>Intake of fish (meat) [g/d]</t>
+  </si>
+  <si>
+    <t>FISH_PROD_0803</t>
+  </si>
+  <si>
+    <t>Intake of processed fish [g/d]</t>
+  </si>
+  <si>
+    <t>EGG_PROD_09</t>
+  </si>
+  <si>
+    <t>Intake of eggs and egg products [g/d]</t>
+  </si>
+  <si>
+    <t>EGGS_0901</t>
+  </si>
+  <si>
+    <t>Intake of eggs [g/d]</t>
+  </si>
+  <si>
+    <t>FAT_10</t>
+  </si>
+  <si>
+    <t>Intake of animal and vegetable fats and oils [g/d]</t>
+  </si>
+  <si>
+    <t>VEGOILS_1001</t>
+  </si>
+  <si>
+    <t>Intake of vegetable fats and oils [g/d]</t>
+  </si>
+  <si>
+    <t>BUTTER_1002</t>
+  </si>
+  <si>
+    <t>Intake of butter [g/d]</t>
+  </si>
+  <si>
+    <t>MARGARINE_1003</t>
+  </si>
+  <si>
+    <t>Intake of margarines and similar [g/d]</t>
+  </si>
+  <si>
+    <t>FRYFAT_1004</t>
+  </si>
+  <si>
+    <t>Intake of blended frying oil/fats [g/d]</t>
+  </si>
+  <si>
+    <t>OTHER_ANIMALFAT_1006</t>
+  </si>
+  <si>
+    <t>Intake of animal fats (processed fat from animal tissue) [g/d]</t>
+  </si>
+  <si>
+    <t>SUGAR_CONFECT_11</t>
+  </si>
+  <si>
+    <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
+  </si>
+  <si>
+    <t>HONEY_JAM_1101</t>
+  </si>
+  <si>
+    <t>Intake of sugars, syrups, honey and table-top sweeteners [g/d]</t>
+  </si>
+  <si>
+    <t>CHOCOLATE_1102</t>
+  </si>
+  <si>
+    <t>Intake of chocolate, chocolate products and chocolate coated confectionary [g/d]</t>
+  </si>
+  <si>
+    <t>NONCHOC_SWEETS_1103</t>
+  </si>
+  <si>
+    <t>Intake of sweet bars and other formed sweet masses, candies (soft and hard) and other confectionery including breath refreshening microsweets [g/d]</t>
+  </si>
+  <si>
+    <t>ICECREAM_1105</t>
+  </si>
+  <si>
+    <t>Intake of spoonable desserts and ice creams [g/d]</t>
+  </si>
+  <si>
+    <t>ICECREAM_MILK_110501</t>
+  </si>
+  <si>
+    <t>Intake of milk-based ice cream [g/d]</t>
+  </si>
+  <si>
+    <t>CAKES_12</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>VARPASTRY_1201</t>
+  </si>
+  <si>
+    <t>Intake of various pastry [g/d]</t>
+  </si>
+  <si>
+    <t>DRYCAKE_1202</t>
+  </si>
+  <si>
+    <t>Intake of sponge biscuits and plain cakes [g/d]</t>
+  </si>
+  <si>
+    <t>NONALC_BEV_13</t>
+  </si>
+  <si>
+    <t>Intake of non-alcoholic beverages [g/d]</t>
+  </si>
+  <si>
+    <t>FRUITVEG_JUICE_1301</t>
+  </si>
+  <si>
+    <t>Intake of fruit and vegetable juices [g/d]</t>
+  </si>
+  <si>
+    <t>SOFTDRINKS_1302</t>
+  </si>
+  <si>
+    <t>Intake of soft drinks [g/d]</t>
+  </si>
+  <si>
+    <t>HOTDRINKS_1303</t>
+  </si>
+  <si>
+    <t>Intake of hot drinks and similar (coffee, cocoa, tea and herbal infusions) [g/d]</t>
+  </si>
+  <si>
+    <t>COFFEE_130301</t>
+  </si>
+  <si>
+    <t>Coffee intake [g/d]</t>
+  </si>
+  <si>
+    <t>TEA_130302</t>
+  </si>
+  <si>
+    <t>Tea intake [g/d]</t>
+  </si>
+  <si>
+    <t>HERBALTEA_130303</t>
+  </si>
+  <si>
+    <t>Intake of herbal and other non-tea infusions [g/d]</t>
+  </si>
+  <si>
+    <t>COFFEE_IMITATE_130304</t>
+  </si>
+  <si>
+    <t>Intake of chicory coffee infusion and coffee imitate beverages [g/d]</t>
+  </si>
+  <si>
+    <t>WATER_1304</t>
+  </si>
+  <si>
+    <t>Intake of water and water-based beverages [g/d]</t>
+  </si>
+  <si>
+    <t>ALC_BEV_14</t>
+  </si>
+  <si>
+    <t>Alcoholic beverage intake [g/d]</t>
+  </si>
+  <si>
+    <t>WINE_1401</t>
+  </si>
+  <si>
+    <t>Intake of wine and wine-like drinks [g/d]</t>
+  </si>
+  <si>
+    <t>FORTWINE_1402</t>
+  </si>
+  <si>
+    <t>Intake of fortified/liqueur wine [g/d]</t>
+  </si>
+  <si>
+    <t>BEER_1403</t>
+  </si>
+  <si>
+    <t>Intake of beer and beer-like beverage [g/d]</t>
+  </si>
+  <si>
+    <t>SPIRITS_1404</t>
+  </si>
+  <si>
+    <t>Intake of unsweetened spirits [g/d]</t>
+  </si>
+  <si>
+    <t>HERBLIQUEUR_1405</t>
+  </si>
+  <si>
+    <t>Intake of herb liqueur [g/d]</t>
+  </si>
+  <si>
+    <t>LIQUEURS_1406</t>
+  </si>
+  <si>
+    <t>Intake of liqueurs [g/d]</t>
+  </si>
+  <si>
+    <t>CONDIMENT_SAUCES_15</t>
+  </si>
+  <si>
+    <t>Intake of seasoning, sauces and condiments [g/d]</t>
+  </si>
+  <si>
+    <t>SAUCES_1501</t>
+  </si>
+  <si>
+    <t>Intake of savoury sauces [g/d]</t>
+  </si>
+  <si>
+    <t>TOMATOSAUCE_150101</t>
+  </si>
+  <si>
+    <t>Intake of tomato-containing cooked sauces [g/d]</t>
+  </si>
+  <si>
+    <t>DRESSINGS_150102</t>
+  </si>
+  <si>
+    <t>Dressing intake [g/d]</t>
+  </si>
+  <si>
+    <t>MAYONNAISE_150103</t>
+  </si>
+  <si>
+    <t>Intake of mayonnaise [g/d]</t>
+  </si>
+  <si>
+    <t>HERBS_SPICES_1503</t>
+  </si>
+  <si>
+    <t>Intakes of berbs, spices and similar [g/d]</t>
+  </si>
+  <si>
+    <t>CONDIMENTS_1504</t>
+  </si>
+  <si>
+    <t>Condiments intake [g/d]</t>
+  </si>
+  <si>
+    <t>SOUP_BOUILLON_16</t>
+  </si>
+  <si>
+    <t>Intake of soups and broths [g/d]</t>
+  </si>
+  <si>
+    <t>SOUP_1601</t>
+  </si>
+  <si>
+    <t>Intake of soups [g/d]</t>
+  </si>
+  <si>
+    <t>BOUILLON_1602</t>
+  </si>
+  <si>
+    <t>Intake of mixed vegetables soup, clear meat soup [g/d]</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS_17</t>
+  </si>
+  <si>
+    <t>Intake of miscellaneous [g/d]</t>
+  </si>
+  <si>
+    <t>VEG_DISHES_1700</t>
+  </si>
+  <si>
+    <t>Intake of vegetarian products and dishes [g/d]</t>
+  </si>
+  <si>
+    <t>SOY_PROD_1701</t>
+  </si>
+  <si>
+    <t>Intake of soy products [g/d]</t>
+  </si>
+  <si>
+    <t>DIET_PROD_1702</t>
+  </si>
+  <si>
+    <t>Intake of food for weight reduction [g/d]</t>
+  </si>
+  <si>
+    <t>ART_SWEETENER_170201</t>
+  </si>
+  <si>
+    <t>Intake of artificial sweeteners (e.g., aspartam, saccharine) [g/d]</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,15 +689,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -110,7 +747,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +779,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +831,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,33 +1024,1431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>valueType</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -386,28 +2457,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
